--- a/SkeletonCode/Built In Cycles/PrePregCureCycleCarbonFiber.xlsx
+++ b/SkeletonCode/Built In Cycles/PrePregCureCycleCarbonFiber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nasstore.engr.colostate.edu\students\UNGRAD\UE\dluckner\home\Mech 486\SkeletonCode\Built_in_Cycles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Mech 486\SkeletonCode\Built In Cycles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,52 +336,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>5000</v>
+      </c>
+      <c r="B1">
         <v>105</v>
       </c>
-      <c r="B1">
-        <v>5000</v>
+      <c r="C1">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
         <v>105</v>
       </c>
-      <c r="B2">
-        <v>5000</v>
+      <c r="C2">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>12500</v>
+      </c>
+      <c r="B3">
         <v>150</v>
       </c>
-      <c r="B3">
-        <v>2500</v>
+      <c r="C3">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>20000</v>
+      </c>
+      <c r="B4">
         <v>150</v>
       </c>
-      <c r="B4">
-        <v>7500</v>
+      <c r="C4">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>25000</v>
+      </c>
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>5000</v>
+      <c r="C5">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
